--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H2">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I2">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J2">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N2">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q2">
-        <v>61.90325883935201</v>
+        <v>137.252000392026</v>
       </c>
       <c r="R2">
-        <v>557.1293295541681</v>
+        <v>1235.268003528234</v>
       </c>
       <c r="S2">
-        <v>0.07199835430759902</v>
+        <v>0.09335089406352635</v>
       </c>
       <c r="T2">
-        <v>0.071998354307599</v>
+        <v>0.09335089406352637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H3">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I3">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J3">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.185244</v>
       </c>
       <c r="O3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q3">
-        <v>11.007492600672</v>
+        <v>10.711812062808</v>
       </c>
       <c r="R3">
-        <v>99.06743340604801</v>
+        <v>96.406308565272</v>
       </c>
       <c r="S3">
-        <v>0.01280257884900964</v>
+        <v>0.007285556715002081</v>
       </c>
       <c r="T3">
-        <v>0.01280257884900964</v>
+        <v>0.007285556715002082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H4">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I4">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J4">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N4">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q4">
-        <v>27.32058762220178</v>
+        <v>20.13502963321466</v>
       </c>
       <c r="R4">
-        <v>245.885288599816</v>
+        <v>181.215266698932</v>
       </c>
       <c r="S4">
-        <v>0.03177599022080303</v>
+        <v>0.01369468578153698</v>
       </c>
       <c r="T4">
-        <v>0.03177599022080302</v>
+        <v>0.01369468578153698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H5">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I5">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J5">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N5">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O5">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P5">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q5">
-        <v>0.3060505128337778</v>
+        <v>1.195995700864667</v>
       </c>
       <c r="R5">
-        <v>2.754454615504</v>
+        <v>10.763961307782</v>
       </c>
       <c r="S5">
-        <v>0.0003559607954762624</v>
+        <v>0.0008134472914999999</v>
       </c>
       <c r="T5">
-        <v>0.0003559607954762623</v>
+        <v>0.0008134472914999999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>113.744728</v>
       </c>
       <c r="I6">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J6">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N6">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q6">
-        <v>226.389658224968</v>
+        <v>515.806976405656</v>
       </c>
       <c r="R6">
-        <v>2037.506924024712</v>
+        <v>4642.262787650904</v>
       </c>
       <c r="S6">
-        <v>0.2633089619200429</v>
+        <v>0.3508221539514239</v>
       </c>
       <c r="T6">
-        <v>0.2633089619200428</v>
+        <v>0.350822153951424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>113.744728</v>
       </c>
       <c r="I7">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J7">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.185244</v>
       </c>
       <c r="O7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q7">
         <v>40.256079154848</v>
@@ -883,10 +883,10 @@
         <v>362.304712393632</v>
       </c>
       <c r="S7">
-        <v>0.04682098332734299</v>
+        <v>0.02737986309753977</v>
       </c>
       <c r="T7">
-        <v>0.04682098332734298</v>
+        <v>0.02737986309753978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>113.744728</v>
       </c>
       <c r="I8">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J8">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N8">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q8">
-        <v>99.91555550163822</v>
+        <v>75.6694891533991</v>
       </c>
       <c r="R8">
-        <v>899.2399995147441</v>
+        <v>681.025402380592</v>
       </c>
       <c r="S8">
-        <v>0.1162096422825876</v>
+        <v>0.05146602195686837</v>
       </c>
       <c r="T8">
-        <v>0.1162096422825875</v>
+        <v>0.05146602195686838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>113.744728</v>
       </c>
       <c r="I9">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J9">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N9">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O9">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P9">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q9">
-        <v>1.119273400126222</v>
+        <v>4.494673480132445</v>
       </c>
       <c r="R9">
-        <v>10.073460601136</v>
+        <v>40.45206132119201</v>
       </c>
       <c r="S9">
-        <v>0.0013018029153924</v>
+        <v>0.003057017651440816</v>
       </c>
       <c r="T9">
-        <v>0.0013018029153924</v>
+        <v>0.003057017651440816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H10">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I10">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J10">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N10">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q10">
-        <v>81.544683076703</v>
+        <v>213.572456019221</v>
       </c>
       <c r="R10">
-        <v>733.9021476903268</v>
+        <v>1922.152104172989</v>
       </c>
       <c r="S10">
-        <v>0.09484287409316612</v>
+        <v>0.145259665868562</v>
       </c>
       <c r="T10">
-        <v>0.09484287409316611</v>
+        <v>0.1452596658685621</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H11">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I11">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J11">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.185244</v>
       </c>
       <c r="O11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q11">
-        <v>14.500084687308</v>
+        <v>16.668230729868</v>
       </c>
       <c r="R11">
-        <v>130.500762185772</v>
+        <v>150.014076568812</v>
       </c>
       <c r="S11">
-        <v>0.01686473788910336</v>
+        <v>0.01133676913011114</v>
       </c>
       <c r="T11">
-        <v>0.01686473788910336</v>
+        <v>0.01133676913011114</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H12">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I12">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J12">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N12">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q12">
-        <v>35.98919832158322</v>
+        <v>31.33133009721355</v>
       </c>
       <c r="R12">
-        <v>323.902784894249</v>
+        <v>281.981970874922</v>
       </c>
       <c r="S12">
-        <v>0.04185826563231902</v>
+        <v>0.02130976356206376</v>
       </c>
       <c r="T12">
-        <v>0.041858265632319</v>
+        <v>0.02130976356206377</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H13">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I13">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J13">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N13">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O13">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P13">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q13">
-        <v>0.4031579684562222</v>
+        <v>1.861042013905223</v>
       </c>
       <c r="R13">
-        <v>3.628421716105999</v>
+        <v>16.749378125147</v>
       </c>
       <c r="S13">
-        <v>0.0004689043969425174</v>
+        <v>0.001265773434205856</v>
       </c>
       <c r="T13">
-        <v>0.0004689043969425173</v>
+        <v>0.001265773434205856</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H14">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I14">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J14">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N14">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O14">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P14">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q14">
-        <v>159.553762068316</v>
+        <v>325.365583464467</v>
       </c>
       <c r="R14">
-        <v>1435.983858614844</v>
+        <v>2928.290251180203</v>
       </c>
       <c r="S14">
-        <v>0.1855735628122098</v>
+        <v>0.2212949030043682</v>
       </c>
       <c r="T14">
-        <v>0.1855735628122097</v>
+        <v>0.2212949030043682</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H15">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I15">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J15">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.185244</v>
       </c>
       <c r="O15">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P15">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q15">
-        <v>28.371476531376</v>
+        <v>25.393108820436</v>
       </c>
       <c r="R15">
-        <v>255.343288782384</v>
+        <v>228.537979383924</v>
       </c>
       <c r="S15">
-        <v>0.03299825659965405</v>
+        <v>0.01727092796221159</v>
       </c>
       <c r="T15">
-        <v>0.03299825659965403</v>
+        <v>0.01727092796221159</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H16">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I16">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J16">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N16">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O16">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P16">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q16">
-        <v>70.4179815210031</v>
+        <v>47.73151317265489</v>
       </c>
       <c r="R16">
-        <v>633.761833689028</v>
+        <v>429.5836185538939</v>
       </c>
       <c r="S16">
-        <v>0.08190164586217469</v>
+        <v>0.03246422213844242</v>
       </c>
       <c r="T16">
-        <v>0.08190164586217466</v>
+        <v>0.03246422213844243</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H17">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I17">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J17">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N17">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O17">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P17">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q17">
-        <v>0.7888358645591111</v>
+        <v>2.835192477496556</v>
       </c>
       <c r="R17">
-        <v>7.099522781031999</v>
+        <v>25.516732297469</v>
       </c>
       <c r="S17">
-        <v>0.0009174780961767957</v>
+        <v>0.001928334391196708</v>
       </c>
       <c r="T17">
-        <v>0.0009174780961767954</v>
+        <v>0.001928334391196708</v>
       </c>
     </row>
   </sheetData>
